--- a/output/DiagnosticReport/specimen-collect-1.xlsx
+++ b/output/DiagnosticReport/specimen-collect-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="361">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-spc-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -546,7 +546,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1)
 </t>
   </si>
   <si>
@@ -644,6 +644,10 @@
     <t>Details concerning the specimen collection.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-dh-spc-02:If present, the collector shall at least have a reference or an identifier with at least a system and a value {collector.exists() implies collector.reference.exists() or collector.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+  </si>
+  <si>
     <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
   </si>
   <si>
@@ -676,7 +680,7 @@
     <t>Specimen.collection.collector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1)
 </t>
   </si>
   <si>
@@ -3906,21 +3910,21 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4026,7 +4030,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4134,11 +4138,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4160,10 +4164,10 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>96</v>
@@ -4218,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4244,7 +4248,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4267,13 +4271,13 @@
         <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4324,7 +4328,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4339,18 +4343,18 @@
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4373,13 +4377,13 @@
         <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4430,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4445,18 +4449,18 @@
         <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4479,13 +4483,13 @@
         <v>48</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4536,7 +4540,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4554,7 +4558,7 @@
         <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4562,7 +4566,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4585,13 +4589,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4642,7 +4646,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4657,18 +4661,18 @@
         <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4694,10 +4698,10 @@
         <v>127</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4727,10 +4731,10 @@
         <v>131</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4748,7 +4752,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4763,18 +4767,18 @@
         <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4880,7 +4884,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4988,7 +4992,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5096,10 +5100,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
@@ -5124,7 +5128,7 @@
         <v>149</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>151</v>
@@ -5161,10 +5165,10 @@
         <v>120</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5208,7 +5212,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5318,7 +5322,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5344,13 +5348,13 @@
         <v>127</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5379,10 +5383,10 @@
         <v>131</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5400,7 +5404,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5415,18 +5419,18 @@
         <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5532,7 +5536,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5640,7 +5644,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5748,10 +5752,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
@@ -5776,7 +5780,7 @@
         <v>149</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>151</v>
@@ -5813,10 +5817,10 @@
         <v>120</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5860,7 +5864,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5970,7 +5974,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5993,19 +5997,19 @@
         <v>48</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6030,13 +6034,13 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -6054,7 +6058,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6075,12 +6079,12 @@
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6106,10 +6110,10 @@
         <v>198</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6160,7 +6164,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6175,7 +6179,7 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6186,7 +6190,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6292,7 +6296,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6400,11 +6404,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6426,10 +6430,10 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>96</v>
@@ -6484,7 +6488,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6510,7 +6514,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6536,10 +6540,10 @@
         <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6590,7 +6594,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6605,7 +6609,7 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6616,7 +6620,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6642,10 +6646,10 @@
         <v>127</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6675,10 +6679,10 @@
         <v>131</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6696,7 +6700,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6722,7 +6726,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6745,13 +6749,13 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6802,7 +6806,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6817,18 +6821,18 @@
         <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6851,13 +6855,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6908,7 +6912,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6923,7 +6927,7 @@
         <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -6934,7 +6938,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6960,10 +6964,10 @@
         <v>198</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7014,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7029,7 +7033,7 @@
         <v>59</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -7040,7 +7044,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7146,7 +7150,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7254,11 +7258,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7280,10 +7284,10 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>96</v>
@@ -7338,7 +7342,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7364,7 +7368,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7390,10 +7394,10 @@
         <v>105</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7444,7 +7448,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7465,12 +7469,12 @@
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7496,10 +7500,10 @@
         <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7550,7 +7554,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7565,7 +7569,7 @@
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7576,7 +7580,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7602,10 +7606,10 @@
         <v>127</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7635,10 +7639,10 @@
         <v>131</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7656,7 +7660,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7677,12 +7681,12 @@
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7788,7 +7792,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7896,7 +7900,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8004,10 +8008,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8032,7 +8036,7 @@
         <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>151</v>
@@ -8069,10 +8073,10 @@
         <v>120</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8116,7 +8120,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8226,7 +8230,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8249,13 +8253,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8306,7 +8310,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8321,18 +8325,18 @@
         <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8355,13 +8359,13 @@
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8412,7 +8416,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8427,18 +8431,18 @@
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8461,13 +8465,13 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8497,10 +8501,10 @@
         <v>131</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>39</v>
@@ -8518,7 +8522,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8533,18 +8537,18 @@
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8570,16 +8574,16 @@
         <v>127</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8604,13 +8608,13 @@
         <v>39</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8628,7 +8632,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8649,12 +8653,12 @@
         <v>39</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8677,13 +8681,13 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8734,7 +8738,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8749,13 +8753,13 @@
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/output/DiagnosticReport/specimen-collect-1.xlsx
+++ b/output/DiagnosticReport/specimen-collect-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="310">
   <si>
     <t>Path</t>
   </si>
@@ -426,13 +426,7 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-type-1</t>
   </si>
   <si>
     <t>.code</t>
@@ -442,105 +436,6 @@
   </si>
   <si>
     <t>SPM-4 and possibly SPM-5</t>
-  </si>
-  <si>
-    <t>Specimen.type.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Specimen.type.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>snomedSpecimenType</t>
-  </si>
-  <si>
-    <t>Specimen Type (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-type-1</t>
-  </si>
-  <si>
-    <t>Specimen.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Specimen.subject</t>
@@ -657,7 +552,25 @@
     <t>Specimen.collection.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Specimen.collection.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -762,10 +675,10 @@
     <t>A coded value specifying the technique that is used to perform the procedure.</t>
   </si>
   <si>
-    <t>The  technique that is used to perform the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+    <t>SNOMED CT Specimen Collection Procedure</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-collection-procedure-1</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -774,30 +687,6 @@
     <t>SPM-7</t>
   </si>
   <si>
-    <t>Specimen.collection.method.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.method.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.method.coding</t>
-  </si>
-  <si>
-    <t>snomedSpecimenCollectionProcedure</t>
-  </si>
-  <si>
-    <t>Specimen Collection Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>SNOMED CT Specimen Collection Procedure</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-collection-procedure-1</t>
-  </si>
-  <si>
-    <t>Specimen.collection.method.text</t>
-  </si>
-  <si>
     <t>Specimen.collection.bodySite</t>
   </si>
   <si>
@@ -810,40 +699,16 @@
     <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>SNOMED CT Body Site</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
   </si>
   <si>
     <t>SPM-8 and SPM-9</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding</t>
-  </si>
-  <si>
-    <t>snomedBodySite</t>
-  </si>
-  <si>
-    <t>Body Site (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>SNOMED CT Body Site</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.text</t>
   </si>
   <si>
     <t>Specimen.collection.fastingStatus[x]</t>
@@ -919,6 +784,9 @@
     <t>A coded value specifying the procedure used to process the specimen.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Type indicating the technique used to process the specimen.</t>
   </si>
   <si>
@@ -1014,30 +882,6 @@
   </si>
   <si>
     <t>SPM-27</t>
-  </si>
-  <si>
-    <t>Specimen.container.type.id</t>
-  </si>
-  <si>
-    <t>Specimen.container.type.extension</t>
-  </si>
-  <si>
-    <t>Specimen.container.type.coding</t>
-  </si>
-  <si>
-    <t>snomedSpecimenContainerType</t>
-  </si>
-  <si>
-    <t>Specimen Container Type (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>SNOMED CT Specimen Container Type</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-container-type-1</t>
-  </si>
-  <si>
-    <t>Specimen.container.type.text</t>
   </si>
   <si>
     <t>Specimen.container.capacity</t>
@@ -1281,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1291,7 +1135,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1313,11 +1157,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.10546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.1328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.71875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.78515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2796,13 +2640,11 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2835,18 +2677,18 @@
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK14" t="s" s="2">
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2854,31 +2696,33 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2926,7 +2770,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2938,13 +2782,13 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -2956,14 +2800,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2972,20 +2816,18 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3022,45 +2864,45 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3080,23 +2922,21 @@
         <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3132,17 +2972,19 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3157,22 +2999,20 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3181,7 +3021,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3190,23 +3030,21 @@
         <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3230,11 +3068,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3267,18 +3107,18 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3286,35 +3126,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3362,7 +3198,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3374,21 +3210,21 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3396,22 +3232,22 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>171</v>
@@ -3420,9 +3256,7 @@
         <v>172</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3470,7 +3304,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3482,13 +3316,13 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3496,18 +3330,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3516,18 +3350,20 @@
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3576,37 +3412,37 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3619,24 +3455,26 @@
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3684,7 +3522,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3696,10 +3534,10 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3708,9 +3546,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3721,29 +3559,27 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3792,13 +3628,13 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -3807,18 +3643,18 @@
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3838,16 +3674,16 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3898,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3910,21 +3746,21 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3944,16 +3780,16 @@
         <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4004,7 +3840,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4016,13 +3852,13 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -4030,18 +3866,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -4053,17 +3889,15 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4112,56 +3946,56 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>39</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>208</v>
@@ -4169,12 +4003,8 @@
       <c r="L27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4198,13 +4028,13 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -4222,33 +4052,33 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4268,18 +4098,20 @@
         <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4304,13 +4136,13 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4328,7 +4160,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4343,18 +4175,18 @@
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4362,13 +4194,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
@@ -4377,16 +4209,20 @@
         <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4410,13 +4246,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4434,7 +4270,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4449,18 +4285,18 @@
         <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4471,7 +4307,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4480,16 +4316,16 @@
         <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4540,13 +4376,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4555,10 +4391,10 @@
         <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4566,7 +4402,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4589,13 +4425,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4646,7 +4482,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4658,35 +4494,35 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -4695,15 +4531,17 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4728,13 +4566,13 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4752,65 +4590,69 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4858,22 +4700,22 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4884,18 +4726,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4907,17 +4749,15 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4954,34 +4794,34 @@
         <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4992,7 +4832,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5003,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -5012,23 +4852,19 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5052,35 +4888,37 @@
         <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -5089,22 +4927,20 @@
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5113,7 +4949,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5122,23 +4958,19 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5162,13 +4994,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5186,7 +5018,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5201,18 +5033,18 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>157</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5232,23 +5064,19 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5296,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5311,18 +5139,18 @@
         <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5333,10 +5161,10 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>39</v>
@@ -5345,17 +5173,15 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5380,13 +5206,13 @@
         <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5404,13 +5230,13 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -5419,18 +5245,18 @@
         <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>257</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5456,10 +5282,10 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5510,7 +5336,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5525,7 +5351,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5536,7 +5362,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5565,7 +5391,7 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>96</v>
@@ -5606,19 +5432,19 @@
         <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5633,7 +5459,7 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5644,11 +5470,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5661,25 +5487,25 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5716,17 +5542,19 @@
         <v>39</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5738,25 +5566,23 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5765,7 +5591,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5777,20 +5603,16 @@
         <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5814,13 +5636,13 @@
         <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5838,7 +5660,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5853,18 +5675,18 @@
         <v>59</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>157</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5884,23 +5706,19 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5948,7 +5766,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5963,18 +5781,18 @@
         <v>59</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5994,23 +5812,19 @@
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -6034,31 +5848,31 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6073,18 +5887,18 @@
         <v>59</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6095,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -6107,13 +5921,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6164,13 +5978,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -6179,18 +5993,18 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>39</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6213,13 +6027,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6270,7 +6084,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6282,32 +6096,32 @@
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>39</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6319,17 +6133,15 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6354,13 +6166,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6378,37 +6190,37 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>39</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6421,25 +6233,25 @@
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6464,13 +6276,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6488,7 +6300,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6500,21 +6312,21 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6525,7 +6337,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6537,13 +6349,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6594,13 +6406,13 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6609,2161 +6421,17 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K57" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB62" s="2"/>
-      <c r="AC62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL69">
+  <autoFilter ref="A1:AL49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8773,7 +6441,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/specimen-collect-1.xlsx
+++ b/output/DiagnosticReport/specimen-collect-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="361">
   <si>
     <t>Path</t>
   </si>
@@ -426,16 +426,121 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type of the specimen.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>SPM-4 and possibly SPM-5</t>
+  </si>
+  <si>
+    <t>Specimen.type.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.type.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Specimen.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>snomedSpecimenType</t>
+  </si>
+  <si>
+    <t>Specimen Type (SNOMED CT)</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-type-1</t>
   </si>
   <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>SPM-4 and possibly SPM-5</t>
+    <t>Specimen.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Specimen.subject</t>
@@ -552,25 +657,7 @@
     <t>Specimen.collection.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Specimen.collection.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -675,16 +762,40 @@
     <t>A coded value specifying the technique that is used to perform the procedure.</t>
   </si>
   <si>
+    <t>The  technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+  </si>
+  <si>
+    <t>.methodCode</t>
+  </si>
+  <si>
+    <t>SPM-7</t>
+  </si>
+  <si>
+    <t>Specimen.collection.method.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.method.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.method.coding</t>
+  </si>
+  <si>
+    <t>snomedSpecimenCollectionProcedure</t>
+  </si>
+  <si>
+    <t>Specimen Collection Procedure (SNOMED CT)</t>
+  </si>
+  <si>
     <t>SNOMED CT Specimen Collection Procedure</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-collection-procedure-1</t>
   </si>
   <si>
-    <t>.methodCode</t>
-  </si>
-  <si>
-    <t>SPM-7</t>
+    <t>Specimen.collection.method.text</t>
   </si>
   <si>
     <t>Specimen.collection.bodySite</t>
@@ -699,16 +810,40 @@
     <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>SPM-8 and SPM-9</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.coding</t>
+  </si>
+  <si>
+    <t>snomedBodySite</t>
+  </si>
+  <si>
+    <t>Body Site (SNOMED CT)</t>
+  </si>
+  <si>
     <t>SNOMED CT Body Site</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
   </si>
   <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>SPM-8 and SPM-9</t>
+    <t>Specimen.collection.bodySite.text</t>
   </si>
   <si>
     <t>Specimen.collection.fastingStatus[x]</t>
@@ -784,9 +919,6 @@
     <t>A coded value specifying the procedure used to process the specimen.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Type indicating the technique used to process the specimen.</t>
   </si>
   <si>
@@ -882,6 +1014,30 @@
   </si>
   <si>
     <t>SPM-27</t>
+  </si>
+  <si>
+    <t>Specimen.container.type.id</t>
+  </si>
+  <si>
+    <t>Specimen.container.type.extension</t>
+  </si>
+  <si>
+    <t>Specimen.container.type.coding</t>
+  </si>
+  <si>
+    <t>snomedSpecimenContainerType</t>
+  </si>
+  <si>
+    <t>Specimen Container Type (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>SNOMED CT Specimen Container Type</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/specimen-container-type-1</t>
+  </si>
+  <si>
+    <t>Specimen.container.type.text</t>
   </si>
   <si>
     <t>Specimen.container.capacity</t>
@@ -1125,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1135,7 +1291,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1157,11 +1313,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.1328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="56.10546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.71875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.78515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2640,11 +2796,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2677,18 +2835,18 @@
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2696,33 +2854,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2770,7 +2926,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2782,13 +2938,13 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -2800,14 +2956,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2816,18 +2972,20 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2864,45 +3022,45 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2922,21 +3080,23 @@
         <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -2972,19 +3132,17 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2999,20 +3157,22 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3021,7 +3181,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3030,21 +3190,23 @@
         <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3068,13 +3230,11 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3107,18 +3267,18 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3126,31 +3286,35 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3198,7 +3362,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3210,21 +3374,21 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>169</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3232,22 +3396,22 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>171</v>
@@ -3256,7 +3420,9 @@
         <v>172</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3304,7 +3470,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3316,13 +3482,13 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3330,18 +3496,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3350,20 +3516,18 @@
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3412,37 +3576,37 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>39</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3455,26 +3619,24 @@
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3522,7 +3684,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3534,10 +3696,10 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3546,9 +3708,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3559,27 +3721,29 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3628,13 +3792,13 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -3643,18 +3807,18 @@
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3674,16 +3838,16 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3734,7 +3898,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3746,21 +3910,21 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3780,16 +3944,16 @@
         <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3840,7 +4004,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3852,13 +4016,13 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -3866,18 +4030,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3889,15 +4053,17 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3946,56 +4112,56 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>206</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>208</v>
@@ -4003,8 +4169,12 @@
       <c r="L27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4028,57 +4198,57 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4098,20 +4268,18 @@
         <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4136,13 +4304,13 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4160,7 +4328,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4175,18 +4343,18 @@
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4194,13 +4362,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
@@ -4209,20 +4377,16 @@
         <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4246,13 +4410,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4270,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4285,18 +4449,18 @@
         <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4307,7 +4471,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4316,16 +4480,16 @@
         <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4376,13 +4540,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4391,10 +4555,10 @@
         <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4402,7 +4566,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4425,13 +4589,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4482,7 +4646,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4494,35 +4658,35 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -4531,17 +4695,15 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4566,13 +4728,13 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4590,69 +4752,65 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4700,22 +4858,22 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4726,18 +4884,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4749,15 +4907,17 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4794,34 +4954,34 @@
         <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4832,7 +4992,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4843,7 +5003,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4852,19 +5012,23 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4888,37 +5052,35 @@
         <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -4927,20 +5089,22 @@
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
       </c>
@@ -4949,7 +5113,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -4958,19 +5122,23 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -4994,13 +5162,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5018,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5033,18 +5201,18 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>254</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5064,19 +5232,23 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5124,7 +5296,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5139,18 +5311,18 @@
         <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5161,10 +5333,10 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>39</v>
@@ -5173,15 +5345,17 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5206,13 +5380,13 @@
         <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5230,13 +5404,13 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -5245,18 +5419,18 @@
         <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>39</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5282,10 +5456,10 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5336,7 +5510,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5351,7 +5525,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5362,7 +5536,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5391,7 +5565,7 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>96</v>
@@ -5432,19 +5606,19 @@
         <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5459,7 +5633,7 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5470,11 +5644,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5487,25 +5661,25 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5542,19 +5716,17 @@
         <v>39</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5566,23 +5738,25 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5591,7 +5765,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5603,16 +5777,20 @@
         <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5636,13 +5814,13 @@
         <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5660,7 +5838,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5675,18 +5853,18 @@
         <v>59</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>268</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5706,19 +5884,23 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5766,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5781,18 +5963,18 @@
         <v>59</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5812,19 +5994,23 @@
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5848,13 +6034,13 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -5872,7 +6058,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5887,18 +6073,18 @@
         <v>59</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5909,7 +6095,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5921,13 +6107,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5978,13 +6164,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -5993,18 +6179,18 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6027,13 +6213,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6084,7 +6270,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6096,32 +6282,32 @@
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6133,15 +6319,17 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6166,13 +6354,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6190,37 +6378,37 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>296</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6233,25 +6421,25 @@
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6276,13 +6464,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6300,7 +6488,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6312,21 +6500,21 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>304</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6337,7 +6525,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6349,13 +6537,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6406,13 +6594,13 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6421,17 +6609,2161 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>309</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AB62" s="2"/>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL49">
+  <autoFilter ref="A1:AL69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6441,7 +8773,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/specimen-collect-1.xlsx
+++ b/output/DiagnosticReport/specimen-collect-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="311">
   <si>
     <t>Path</t>
   </si>
@@ -703,6 +703,10 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-dh-spc-03:If a coded body site is provided, at least one code shall be from SNOMED CT {coding.exists() implies coding.where(system='http://snomed.info/sct').exists()}</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -4172,21 +4176,21 @@
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4209,19 +4213,19 @@
         <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4246,13 +4250,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4270,7 +4274,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4291,12 +4295,12 @@
         <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4322,10 +4326,10 @@
         <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4376,7 +4380,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4391,7 +4395,7 @@
         <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4402,7 +4406,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4508,7 +4512,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4616,7 +4620,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4726,7 +4730,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4752,10 +4756,10 @@
         <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4806,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4821,7 +4825,7 @@
         <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4832,7 +4836,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4858,10 +4862,10 @@
         <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4888,13 +4892,13 @@
         <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -4912,7 +4916,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4938,7 +4942,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4961,13 +4965,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5018,7 +5022,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5033,18 +5037,18 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5070,10 +5074,10 @@
         <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5124,7 +5128,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5150,7 +5154,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5176,10 +5180,10 @@
         <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5230,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5245,7 +5249,7 @@
         <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5256,7 +5260,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5362,7 +5366,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5470,7 +5474,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5580,7 +5584,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5606,10 +5610,10 @@
         <v>105</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5660,7 +5664,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5681,12 +5685,12 @@
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5712,10 +5716,10 @@
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5766,7 +5770,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5781,7 +5785,7 @@
         <v>59</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5792,7 +5796,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5818,10 +5822,10 @@
         <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5848,13 +5852,13 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -5872,7 +5876,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5893,12 +5897,12 @@
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5924,10 +5928,10 @@
         <v>202</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5978,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -5993,18 +5997,18 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6030,10 +6034,10 @@
         <v>202</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6084,7 +6088,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6099,18 +6103,18 @@
         <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6133,13 +6137,13 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6166,13 +6170,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6190,7 +6194,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6205,18 +6209,18 @@
         <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6242,16 +6246,16 @@
         <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6276,13 +6280,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6300,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6321,12 +6325,12 @@
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6349,13 +6353,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6406,7 +6410,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6421,13 +6425,13 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
